--- a/classeurs/mise_en_forme_conditionnelle.xlsx
+++ b/classeurs/mise_en_forme_conditionnelle.xlsx
@@ -8,8 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Activité 13" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Activité 14" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Activité 17" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Activité 18" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -74,6 +74,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -94,6 +95,7 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +172,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.78"/>
@@ -300,10 +302,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -319,7 +321,7 @@
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.36"/>
   </cols>
@@ -448,10 +450,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>